--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Geral" sheetId="2" r:id="rId2"/>
-    <sheet name="Clientes" sheetId="3" r:id="rId3"/>
-    <sheet name="cálculos" sheetId="4" r:id="rId4"/>
+    <sheet name="Calendário" sheetId="5" r:id="rId3"/>
+    <sheet name="Clientes" sheetId="3" r:id="rId4"/>
+    <sheet name="cálculos" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>Produtos</t>
   </si>
@@ -52,12 +53,6 @@
     <t>Fornecedor 3</t>
   </si>
   <si>
-    <t>Observação: Essa aba é o local de cadastro dos meus produtos</t>
-  </si>
-  <si>
-    <t>Dados</t>
-  </si>
-  <si>
     <t>Preço de Venda</t>
   </si>
   <si>
@@ -71,16 +66,296 @@
   </si>
   <si>
     <t>Quantidade Comprada</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Data da última compra</t>
+  </si>
+  <si>
+    <t>Beltrano 1</t>
+  </si>
+  <si>
+    <t>Beltrano 2</t>
+  </si>
+  <si>
+    <t>Beltrano 3</t>
+  </si>
+  <si>
+    <t>Beltrano 4</t>
+  </si>
+  <si>
+    <t>Beltrano 5</t>
+  </si>
+  <si>
+    <t>Beltrano 6</t>
+  </si>
+  <si>
+    <t>Beltrano 7</t>
+  </si>
+  <si>
+    <t>Beltrano 8</t>
+  </si>
+  <si>
+    <t>Beltrano 9</t>
+  </si>
+  <si>
+    <t>90000-0000</t>
+  </si>
+  <si>
+    <t>beltrano1@gmail</t>
+  </si>
+  <si>
+    <t>beltrano2@gmail</t>
+  </si>
+  <si>
+    <t>beltrano3@gmail</t>
+  </si>
+  <si>
+    <t>beltrano4@gmail</t>
+  </si>
+  <si>
+    <t>beltrano5@gmail</t>
+  </si>
+  <si>
+    <t>beltrano6@gmail</t>
+  </si>
+  <si>
+    <t>beltrano7@gmail</t>
+  </si>
+  <si>
+    <t>beltrano8@gmail</t>
+  </si>
+  <si>
+    <t>beltrano9@gmail</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jurídica</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Lista de Produtos</t>
+  </si>
+  <si>
+    <t>Preços</t>
+  </si>
+  <si>
+    <t>Produto 4</t>
+  </si>
+  <si>
+    <t>Produto 5</t>
+  </si>
+  <si>
+    <t>Produto 6</t>
+  </si>
+  <si>
+    <t>Produto 7</t>
+  </si>
+  <si>
+    <t>Produto 8</t>
+  </si>
+  <si>
+    <t>Produto 9</t>
+  </si>
+  <si>
+    <t>Produto 10</t>
+  </si>
+  <si>
+    <t>Produto 11</t>
+  </si>
+  <si>
+    <t>Produto 12</t>
+  </si>
+  <si>
+    <t>Produto 13</t>
+  </si>
+  <si>
+    <t>Produto 14</t>
+  </si>
+  <si>
+    <t>Produto 15</t>
+  </si>
+  <si>
+    <t>Produto 16</t>
+  </si>
+  <si>
+    <t>Lista de Fornecedores</t>
+  </si>
+  <si>
+    <t>Fornecedor 4</t>
+  </si>
+  <si>
+    <t>Fornecedor 5</t>
+  </si>
+  <si>
+    <t>Fornecedor 6</t>
+  </si>
+  <si>
+    <t>Fornecedor 7</t>
+  </si>
+  <si>
+    <t>Fornecedor 8</t>
+  </si>
+  <si>
+    <t>Fornecedor 9</t>
+  </si>
+  <si>
+    <t>Fornecedor 10</t>
+  </si>
+  <si>
+    <t>Fornecedor 11</t>
+  </si>
+  <si>
+    <t>Fornecedor 12</t>
+  </si>
+  <si>
+    <t>Fornecedor 13</t>
+  </si>
+  <si>
+    <t>Fornecedor 14</t>
+  </si>
+  <si>
+    <t>Fornecedor 15</t>
+  </si>
+  <si>
+    <t>Fornecedor 16</t>
+  </si>
+  <si>
+    <t>Fornecedor 17</t>
+  </si>
+  <si>
+    <t>Lista de Funcionários</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>Dias de trabalho</t>
+  </si>
+  <si>
+    <t>Funcionário 1</t>
+  </si>
+  <si>
+    <t>Funcionário 2</t>
+  </si>
+  <si>
+    <t>Funcionário 3</t>
+  </si>
+  <si>
+    <t>Funcionário 4</t>
+  </si>
+  <si>
+    <t>Funcionário 5</t>
+  </si>
+  <si>
+    <t>Funcionário 6</t>
+  </si>
+  <si>
+    <t>Funcionário 7</t>
+  </si>
+  <si>
+    <t>Funcionário 8</t>
+  </si>
+  <si>
+    <t>Funcionário 9</t>
+  </si>
+  <si>
+    <t>Funcionário 10</t>
+  </si>
+  <si>
+    <t>Funcionário 11</t>
+  </si>
+  <si>
+    <t>Funcionário 12</t>
+  </si>
+  <si>
+    <t>Funcionário 13</t>
+  </si>
+  <si>
+    <t>Funcionário 14</t>
+  </si>
+  <si>
+    <t>Funcionário 15</t>
+  </si>
+  <si>
+    <t>Funcionário 16</t>
+  </si>
+  <si>
+    <t>Observação: Essa aba contém a divisão de turnos dos funcionários da empresa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,23 +380,49 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="2"/>
+      <sz val="16"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +446,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -206,31 +519,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
@@ -238,17 +706,49 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - Ênfase3" xfId="3" builtinId="39"/>
     <cellStyle name="60% - Ênfase3" xfId="2" builtinId="40"/>
     <cellStyle name="Ênfase3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:L24"/>
+  <dimension ref="A2:BG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -578,189 +1078,535 @@
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:12" ht="18" customHeight="1"/>
-    <row r="10" spans="3:12" ht="19.8" customHeight="1">
-      <c r="D10" s="7" t="s">
+    <row r="2" spans="1:59" ht="4.95" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+    </row>
+    <row r="4" spans="1:59" ht="21">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="D11" s="1" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+    </row>
+    <row r="5" spans="1:59" ht="13.8" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+    </row>
+    <row r="6" spans="1:59" ht="4.95" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+    </row>
+    <row r="9" spans="1:59" ht="18" customHeight="1"/>
+    <row r="10" spans="1:59" ht="19.8" customHeight="1"/>
+    <row r="11" spans="1:59">
+      <c r="D11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="28.2" customHeight="1">
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:59" ht="28.2" customHeight="1">
+      <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="11">
         <v>4.5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="12">
         <v>42024</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="13">
         <f>F12+2.5</f>
         <v>7</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="10">
         <v>5</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="10">
         <f>H12-J12</f>
         <v>5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="14">
         <f>(I12-F12)/I12</f>
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="30" customHeight="1">
-      <c r="C13" s="5"/>
-      <c r="D13" s="8" t="s">
+    <row r="13" spans="1:59" ht="30" customHeight="1">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="3">
         <v>7</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>42025</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="9">
         <f>F13+3</f>
         <v>10</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="19">
         <v>8</v>
       </c>
-      <c r="K13" s="8">
-        <f>H13-J13</f>
+      <c r="K13" s="19">
+        <f t="shared" ref="K13" si="0">H13-J13</f>
         <v>12</v>
       </c>
-      <c r="L13" s="17">
-        <f>(I13-F13)/I13</f>
+      <c r="L13" s="20">
+        <f t="shared" ref="L13:L14" si="1">(I13-F13)/I13</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="32.4" customHeight="1">
-      <c r="C14" s="6"/>
-      <c r="D14" s="11" t="s">
+    <row r="14" spans="1:59" ht="32.4" customHeight="1">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>8</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="7">
         <v>42025</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="5">
         <v>25</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="8">
         <f>F14+6</f>
         <v>14</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="5">
         <v>17</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="5">
         <f>H14-J14</f>
         <v>8</v>
       </c>
-      <c r="L14" s="15">
-        <f>(I14-F14)/I14</f>
+      <c r="L14" s="18">
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" customHeight="1"/>
-    <row r="23" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+    <row r="15" spans="1:59">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" customHeight="1"/>
+    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D10:L10"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -768,28 +1614,1100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A4:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:10" ht="24" thickBot="1">
+      <c r="D4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="41"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="39"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="4:10" ht="21">
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>3</v>
+      </c>
+      <c r="G7" s="28">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <v>5</v>
+      </c>
+      <c r="I7" s="28">
+        <v>6</v>
+      </c>
+      <c r="J7" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="39"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="4:10" ht="21">
+      <c r="D10" s="29">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>9</v>
+      </c>
+      <c r="F10" s="28">
+        <v>10</v>
+      </c>
+      <c r="G10" s="28">
+        <v>11</v>
+      </c>
+      <c r="H10" s="28">
+        <v>12</v>
+      </c>
+      <c r="I10" s="28">
+        <v>13</v>
+      </c>
+      <c r="J10" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="39"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="4:10" ht="21">
+      <c r="D13" s="29">
+        <v>15</v>
+      </c>
+      <c r="E13" s="28">
+        <v>16</v>
+      </c>
+      <c r="F13" s="28">
+        <v>17</v>
+      </c>
+      <c r="G13" s="28">
+        <v>18</v>
+      </c>
+      <c r="H13" s="28">
+        <v>19</v>
+      </c>
+      <c r="I13" s="28">
+        <v>20</v>
+      </c>
+      <c r="J13" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="39"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="4:10" ht="21">
+      <c r="D16" s="29">
+        <v>22</v>
+      </c>
+      <c r="E16" s="28">
+        <v>23</v>
+      </c>
+      <c r="F16" s="28">
+        <v>24</v>
+      </c>
+      <c r="G16" s="28">
+        <v>25</v>
+      </c>
+      <c r="H16" s="28">
+        <v>26</v>
+      </c>
+      <c r="I16" s="28">
+        <v>27</v>
+      </c>
+      <c r="J16" s="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="D18" s="39"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.6" thickBot="1">
+      <c r="D19" s="31">
+        <v>29</v>
+      </c>
+      <c r="E19" s="32">
+        <v>30</v>
+      </c>
+      <c r="F19" s="32">
+        <v>31</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" customHeight="1">
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" customHeight="1">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="9" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="18" customHeight="1"/>
+    <row r="2" spans="1:59" ht="4.95" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+    </row>
+    <row r="4" spans="1:59" ht="21">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+    </row>
+    <row r="5" spans="1:59" ht="13.8" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+    </row>
+    <row r="6" spans="1:59" ht="4.95" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="D12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="4">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="7">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="7">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="4">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="7">
+        <v>42049</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A7:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="22">
+        <v>5</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="22">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="22">
+        <v>7</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="22">
+        <v>8</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="22">
+        <v>9</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="22">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="22">
+        <v>11</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="22">
+        <v>12</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="22">
+        <v>13</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="22">
+        <v>14</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="22">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="22">
+        <v>16</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="2"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>Produtos</t>
   </si>
@@ -345,6 +345,21 @@
   </si>
   <si>
     <t>Observação: Essa aba contém a divisão de turnos dos funcionários da empresa</t>
+  </si>
+  <si>
+    <t>Estoque Real</t>
+  </si>
+  <si>
+    <t>Defasagem</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Total de Produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastros Incompletos </t>
   </si>
 </sst>
 </file>
@@ -353,9 +368,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +436,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -696,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -710,8 +741,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -719,14 +748,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -746,6 +769,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase3" xfId="3" builtinId="39"/>
@@ -753,7 +786,141 @@
     <cellStyle name="Ênfase3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1059,527 +1226,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
     </row>
     <row r="4" spans="1:59" ht="21">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44">
+        <f>COUNTA(B12:B20)</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
     </row>
     <row r="5" spans="1:59" ht="13.8" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
     </row>
     <row r="6" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
     </row>
     <row r="9" spans="1:59" ht="18" customHeight="1"/>
     <row r="10" spans="1:59" ht="19.8" customHeight="1"/>
     <row r="11" spans="1:59">
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="J11" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="K11" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:59" ht="28.2" customHeight="1">
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11">
+      <c r="D12" s="6">
         <v>4.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="E12" s="7">
         <v>42024</v>
       </c>
-      <c r="H12" s="10">
+      <c r="F12" s="5">
         <v>10</v>
       </c>
-      <c r="I12" s="13">
-        <f>F12+2.5</f>
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="J12" s="10">
+      <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="K12" s="10">
-        <f>H12-J12</f>
+      <c r="I12" s="5">
+        <f>F12-H12</f>
         <v>5</v>
       </c>
-      <c r="L12" s="14">
-        <f>(I12-F12)/I12</f>
+      <c r="J12" s="16">
+        <f>(G12-D12)/G12</f>
         <v>0.35714285714285715</v>
       </c>
+      <c r="K12" s="42">
+        <v>5</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:59" ht="30" customHeight="1">
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="G13" s="4">
+      <c r="E13" s="4">
         <v>42025</v>
       </c>
-      <c r="H13" s="2">
+      <c r="F13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="9">
-        <f>F13+3</f>
+      <c r="G13" s="9">
+        <f>D13+3</f>
         <v>10</v>
       </c>
-      <c r="J13" s="19">
+      <c r="H13" s="17">
         <v>8</v>
       </c>
-      <c r="K13" s="19">
-        <f t="shared" ref="K13" si="0">H13-J13</f>
+      <c r="I13" s="17">
+        <f t="shared" ref="I13" si="0">F13-H13</f>
         <v>12</v>
       </c>
-      <c r="L13" s="20">
-        <f t="shared" ref="L13:L14" si="1">(I13-F13)/I13</f>
+      <c r="J13" s="18">
+        <f t="shared" ref="J13:J14" si="1">(G13-D13)/G13</f>
         <v>0.3</v>
       </c>
+      <c r="K13" s="41">
+        <v>12</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:59" ht="32.4" customHeight="1">
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6">
+      <c r="D14" s="6">
         <v>8</v>
       </c>
-      <c r="G14" s="7">
+      <c r="E14" s="7">
         <v>42025</v>
       </c>
+      <c r="F14" s="5">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8">
+        <f>D14+6</f>
+        <v>14</v>
+      </c>
       <c r="H14" s="5">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8">
-        <f>F14+6</f>
-        <v>14</v>
-      </c>
-      <c r="J14" s="5">
         <v>17</v>
       </c>
-      <c r="K14" s="5">
-        <f>H14-J14</f>
+      <c r="I14" s="5">
+        <f>F14-H14</f>
         <v>8</v>
       </c>
-      <c r="L14" s="18">
+      <c r="J14" s="16">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
+      <c r="K14" s="42">
+        <v>7</v>
+      </c>
+      <c r="L14" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:59">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
+        <f t="shared" ref="I15:I20" si="2">F15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:59">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
@@ -1607,6 +1843,26 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J12:J20">
+    <cfRule type="containsErrors" dxfId="7" priority="4">
+      <formula>ISERROR(J12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K20">
+    <cfRule type="containsErrors" dxfId="6" priority="3">
+      <formula>ISERROR(K12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L20">
+    <cfRule type="containsErrors" dxfId="5" priority="2">
+      <formula>ISERROR(L12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A20">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>OR(AND(K12=0,K12&lt;&gt;""),L12&lt;&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1616,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1638,228 +1894,228 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:10" ht="24" thickBot="1">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="41"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="39"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="4:10" ht="21">
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <v>3</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="24">
         <v>4</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="24">
         <v>5</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <v>6</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="39"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="4:10" ht="21">
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>8</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="24">
         <v>9</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <v>10</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="24">
         <v>11</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="24">
         <v>12</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="24">
         <v>13</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="26">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="39"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="4:10" ht="21">
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>15</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>16</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="24">
         <v>17</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="24">
         <v>18</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="24">
         <v>19</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="24">
         <v>20</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="26">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="39"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="4:10" ht="21">
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <v>22</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>23</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="24">
         <v>24</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="24">
         <v>25</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="24">
         <v>26</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="24">
         <v>27</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="26">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="D18" s="39"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="21.6" thickBot="1">
-      <c r="D19" s="31">
+      <c r="D19" s="27">
         <v>29</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="28">
         <v>30</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="28">
         <v>31</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="13.8" customHeight="1">
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -1882,7 +2138,7 @@
   <dimension ref="A1:BG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1892,329 +2148,334 @@
   <sheetData>
     <row r="1" spans="1:59" ht="18" customHeight="1"/>
     <row r="2" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
     </row>
     <row r="4" spans="1:59" ht="21">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="44">
+        <f>COUNTBLANK(D11:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
     </row>
     <row r="5" spans="1:59" ht="13.8" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
     </row>
     <row r="6" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
     </row>
     <row r="10" spans="1:59">
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2239,7 +2500,7 @@
       </c>
     </row>
     <row r="12" spans="1:59">
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2434,274 +2695,274 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="D7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>7</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>8</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>9</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>10</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>11</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>12</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>13</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>14</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>15</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>16</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>Produtos</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Funcionário 16</t>
   </si>
   <si>
-    <t>Observação: Essa aba contém a divisão de turnos dos funcionários da empresa</t>
-  </si>
-  <si>
     <t>Estoque Real</t>
   </si>
   <si>
@@ -360,6 +357,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cadastros Incompletos </t>
+  </si>
+  <si>
+    <t>Data da penúltima compra</t>
+  </si>
+  <si>
+    <t>Fazer contato</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -548,15 +551,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -727,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -738,12 +732,8 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -753,32 +743,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase3" xfId="3" builtinId="39"/>
@@ -786,112 +776,7 @@
     <cellStyle name="Ênfase3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1226,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1248,355 +1133,355 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
     </row>
     <row r="4" spans="1:59" ht="21">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37">
         <f>COUNTA(B12:B20)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
     </row>
     <row r="5" spans="1:59" ht="13.8" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
     </row>
     <row r="6" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="13"/>
-      <c r="BF6" s="13"/>
-      <c r="BG6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18" customHeight="1"/>
     <row r="10" spans="1:59" ht="19.8" customHeight="1"/>
     <row r="11" spans="1:59">
-      <c r="A11" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>109</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="28.2" customHeight="1">
@@ -1626,14 +1511,14 @@
         <f>F12-H12</f>
         <v>5</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="12">
         <f>(G12-D12)/G12</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="35">
         <v>5</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="35">
         <v>0</v>
       </c>
     </row>
@@ -1658,21 +1543,21 @@
         <f>D13+3</f>
         <v>10</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <v>8</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <f t="shared" ref="I13" si="0">F13-H13</f>
         <v>12</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="14">
         <f t="shared" ref="J13:J14" si="1">(G13-D13)/G13</f>
         <v>0.3</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="34">
         <v>12</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="34">
         <v>0</v>
       </c>
     </row>
@@ -1704,14 +1589,14 @@
         <f>F14-H14</f>
         <v>8</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="12">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="35">
         <v>7</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1723,14 +1608,14 @@
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
         <f t="shared" ref="I15:I20" si="2">F15-H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:59">
       <c r="A16" s="5"/>
@@ -1745,9 +1630,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2"/>
@@ -1757,14 +1642,14 @@
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1">
       <c r="A18" s="5"/>
@@ -1779,9 +1664,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2"/>
@@ -1791,14 +1676,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="5"/>
@@ -1813,9 +1698,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
@@ -1844,22 +1729,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J12:J20">
-    <cfRule type="containsErrors" dxfId="7" priority="4">
+    <cfRule type="containsErrors" dxfId="3" priority="4">
       <formula>ISERROR(J12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K20">
-    <cfRule type="containsErrors" dxfId="6" priority="3">
+    <cfRule type="containsErrors" dxfId="2" priority="3">
       <formula>ISERROR(K12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L20">
-    <cfRule type="containsErrors" dxfId="5" priority="2">
+    <cfRule type="containsErrors" dxfId="1" priority="2">
       <formula>ISERROR(L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A20">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(AND(K12=0,K12&lt;&gt;""),L12&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1870,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J26"/>
+  <dimension ref="D4:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1881,7 +1766,7 @@
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
@@ -1894,235 +1779,316 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:10" ht="24" thickBot="1">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="37"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="35"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="4:10" ht="21">
-      <c r="D7" s="25">
+      <c r="D7" s="21">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
+        <f>IFERROR(IF(D7&gt;30,"",D7+1),"")</f>
         <v>2</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:J7" si="0">IFERROR(IF(E7&gt;30,"",E7+1),"")</f>
         <v>3</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="35"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="4:10" ht="21">
-      <c r="D10" s="25">
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D10" s="23">
+        <f>IFERROR(J7+1,"")</f>
         <v>8</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
+        <f>IFERROR(IF(D10&gt;30,"",D10+1),"")</f>
         <v>9</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:J10" si="1">IFERROR(IF(E10&gt;30,"",E10+1),"")</f>
         <v>10</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="20">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="35"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="4:10" ht="21">
-      <c r="D13" s="25">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D13" s="23">
+        <f>IFERROR(J10+1,"")</f>
         <v>15</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
+        <f>IFERROR(IF(D13&gt;30,"",D13+1),"")</f>
         <v>16</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
+        <f t="shared" ref="F13:J13" si="2">IFERROR(IF(E13&gt;30,"",E13+1),"")</f>
         <v>17</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="20">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="22">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="35"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="4:10" ht="21">
-      <c r="D16" s="25">
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D16" s="23">
+        <f>IFERROR(J13+1,"")</f>
         <v>22</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="20">
+        <f>IFERROR(IF(D16&gt;30,"",D16+1),"")</f>
         <v>23</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="20">
+        <f t="shared" ref="F16:J16" si="3">IFERROR(IF(E16&gt;30,"",E16+1),"")</f>
         <v>24</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="20">
+        <f>IFERROR(IF(F16&gt;30,"",F16+1),"")</f>
         <v>25</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="20">
+        <f>IFERROR(IF(G16&gt;30,"",G16+1),"")</f>
         <v>26</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="20">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="22">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="D18" s="35"/>
+    <row r="17" spans="4:10">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="31"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.6" thickBot="1">
-      <c r="D19" s="27">
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D19" s="23">
+        <f>IFERROR(J16+1,"")</f>
         <v>29</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="20">
+        <f>IFERROR(IF(D19&gt;30,"",D19+1),"")</f>
         <v>30</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="20">
+        <f>IFERROR(IF(E19&gt;30,"",E19+1),"")</f>
         <v>31</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8" customHeight="1">
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1">
+      <c r="G19" s="20" t="str">
+        <f t="shared" ref="F19:J19" si="4">IFERROR(IF(F19&gt;30,"",F19+1),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="31"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D22" s="23" t="str">
+        <f>IFERROR(J19+1,"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="24" t="str">
+        <f>IFERROR(IF(D22&gt;30,"",D22+1),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f>IFERROR(IF(E22&gt;30,"",E22+1),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="24" t="str">
+        <f>IFERROR(IF(F22&gt;30,"",F22+1),"")</f>
+        <v/>
+      </c>
+      <c r="H22" s="24" t="str">
+        <f>IFERROR(IF(G22&gt;30,"",G22+1),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="24" t="str">
+        <f>IFERROR(IF(H22&gt;30,"",H22+1),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="25" t="str">
+        <f>IFERROR(IF(I22&gt;30,"",I22+1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="33" customHeight="1">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2130,6 +2096,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2137,541 +2104,617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="26.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18" customHeight="1"/>
     <row r="2" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
     </row>
     <row r="4" spans="1:59" ht="21">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="37">
+        <f>COUNTBLANK(B11:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+    </row>
+    <row r="5" spans="1:59" ht="13.8" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+    </row>
+    <row r="6" spans="1:59" ht="4.95" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="H8" s="42"/>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="B10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="44">
-        <f>COUNTBLANK(D11:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-    </row>
-    <row r="5" spans="1:59" ht="13.8" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
-    </row>
-    <row r="6" spans="1:59" ht="4.95" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="13"/>
-      <c r="BF6" s="13"/>
-      <c r="BG6" s="13"/>
-    </row>
-    <row r="10" spans="1:59">
-      <c r="D10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="38" t="s">
         <v>28</v>
       </c>
+      <c r="I10" s="38" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:59">
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="12">
-        <v>42049</v>
+      <c r="G11" s="7">
+        <v>41684</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43813</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f ca="1">IF(TODAY()-H11&gt;H11-G11,"Sim","Não")</f>
+        <v>Não</v>
       </c>
     </row>
     <row r="12" spans="1:59">
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="4">
-        <v>42049</v>
+      <c r="G12" s="39">
+        <v>41684</v>
+      </c>
+      <c r="H12" s="4">
+        <v>41712</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f ca="1">IF(TODAY()-H12&gt;H12-G12,"Sim","Não")</f>
+        <v>Sim</v>
       </c>
     </row>
     <row r="13" spans="1:59">
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="7">
-        <v>42049</v>
+      <c r="G13" s="7">
+        <v>41684</v>
+      </c>
+      <c r="H13" s="7">
+        <v>41712</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" ref="I12:I19" ca="1" si="0">IF(TODAY()-H13&gt;H13-G13,"Sim","Não")</f>
+        <v>Sim</v>
       </c>
     </row>
     <row r="14" spans="1:59">
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="4">
-        <v>42049</v>
+      <c r="G14" s="39">
+        <v>41684</v>
+      </c>
+      <c r="H14" s="4">
+        <v>41712</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
       </c>
     </row>
     <row r="15" spans="1:59">
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="7">
-        <v>42049</v>
+      <c r="G15" s="7">
+        <v>41684</v>
+      </c>
+      <c r="H15" s="7">
+        <v>41712</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
       </c>
     </row>
     <row r="16" spans="1:59">
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="4">
-        <v>42049</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9">
-      <c r="D17" s="6" t="s">
+      <c r="G16" s="39">
+        <v>41684</v>
+      </c>
+      <c r="H16" s="4">
+        <v>41712</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="7">
-        <v>42049</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
-      <c r="D18" s="3" t="s">
+      <c r="G17" s="7">
+        <v>41684</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41712</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="4">
-        <v>42049</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="6" t="s">
+      <c r="G18" s="39">
+        <v>41684</v>
+      </c>
+      <c r="H18" s="4">
+        <v>41712</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="7">
-        <v>42049</v>
+      <c r="G19" s="7">
+        <v>41684</v>
+      </c>
+      <c r="H19" s="7">
+        <v>41712</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sim</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="F16" r:id="rId6"/>
-    <hyperlink ref="F17" r:id="rId7"/>
-    <hyperlink ref="F18" r:id="rId8"/>
-    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2695,274 +2738,274 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="40"/>
+      <c r="D7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <v>5</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <v>6</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>7</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>8</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>9</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>10</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <v>11</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <v>12</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>13</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <v>14</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <v>15</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <v>16</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Produtos</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Fazer contato</t>
+  </si>
+  <si>
+    <t>Mês Atual</t>
+  </si>
+  <si>
+    <t>Dias da Semana</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -621,19 +627,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -721,7 +714,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -744,15 +737,14 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
@@ -762,13 +754,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase3" xfId="3" builtinId="39"/>
@@ -1264,11 +1256,11 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36">
         <f>COUNTA(B12:B20)</f>
         <v>3</v>
       </c>
@@ -1447,40 +1439,40 @@
     <row r="9" spans="1:59" ht="18" customHeight="1"/>
     <row r="10" spans="1:59" ht="19.8" customHeight="1"/>
     <row r="11" spans="1:59">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="35" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1515,10 +1507,10 @@
         <f>(G12-D12)/G12</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>5</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="34">
         <v>0</v>
       </c>
     </row>
@@ -1554,10 +1546,10 @@
         <f t="shared" ref="J13:J14" si="1">(G13-D13)/G13</f>
         <v>0.3</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <v>12</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1593,10 +1585,10 @@
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>7</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1755,14 +1747,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D4:J26"/>
+  <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1778,7 +1772,16 @@
     <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:10" ht="24" thickBot="1">
+    <row r="3" spans="2:10" ht="23.4">
+      <c r="B3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="18">
+        <f ca="1">MONTH(TODAY())</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="24" thickBot="1">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1801,290 +1804,291 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="4:10">
-      <c r="D5" s="33"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="4:10">
-      <c r="D6" s="31"/>
+    <row r="5" spans="2:10">
+      <c r="D5" s="32"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="D6" s="30"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="4:10" ht="21">
-      <c r="D7" s="21">
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="2:10" ht="21">
+      <c r="D7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!J6,1,IF(C7&lt;&gt;"",C7+1,""))</f>
         <v>1</v>
       </c>
       <c r="E7" s="20">
-        <f>IFERROR(IF(D7&gt;30,"",D7+1),"")</f>
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!K6,1,IF(D7&lt;&gt;"",D7+1,""))</f>
         <v>2</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" ref="F7:J7" si="0">IFERROR(IF(E7&gt;30,"",E7+1),"")</f>
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!L6,1,IF(E7&lt;&gt;"",E7+1,""))</f>
         <v>3</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!M6,1,IF(F7&lt;&gt;"",F7+1,""))</f>
         <v>4</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!N6,1,IF(G7&lt;&gt;"",G7+1,""))</f>
         <v>5</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="0"/>
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!O6,1,IF(H7&lt;&gt;"",H7+1,""))</f>
         <v>6</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
+      <c r="J7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!P6,1,IF(I7&lt;&gt;"",I7+1,""))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="4:10">
-      <c r="D9" s="31"/>
+    <row r="8" spans="2:10">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="30"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D10" s="23">
-        <f>IFERROR(J7+1,"")</f>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D10" s="22">
+        <f ca="1">IF(J7&gt;30,"",J7+1)</f>
         <v>8</v>
       </c>
       <c r="E10" s="20">
-        <f>IFERROR(IF(D10&gt;30,"",D10+1),"")</f>
+        <f t="shared" ref="E10:J10" ca="1" si="0">IFERROR(IF(D10&gt;30,"",D10+1),"")</f>
         <v>9</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" ref="F10:J10" si="1">IFERROR(IF(E10&gt;30,"",E10+1),"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="J10" s="22">
-        <f t="shared" si="1"/>
+      <c r="J10" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:10">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="4:10">
-      <c r="D12" s="31"/>
+    <row r="11" spans="2:10">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="30"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D13" s="23">
-        <f>IFERROR(J10+1,"")</f>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D13" s="22">
+        <f ca="1">IF(J10&gt;30,"",J10+1)</f>
         <v>15</v>
       </c>
       <c r="E13" s="20">
-        <f>IFERROR(IF(D13&gt;30,"",D13+1),"")</f>
+        <f t="shared" ref="E13:J13" ca="1" si="1">IFERROR(IF(D13&gt;30,"",D13+1),"")</f>
         <v>16</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" ref="F13:J13" si="2">IFERROR(IF(E13&gt;30,"",E13+1),"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="2"/>
+      <c r="J13" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="4:10">
-      <c r="D15" s="31"/>
+    <row r="14" spans="2:10">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" s="30"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D16" s="23">
-        <f>IFERROR(J13+1,"")</f>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D16" s="22">
+        <f ca="1">IF(J13&gt;30,"",J13+1)</f>
         <v>22</v>
       </c>
       <c r="E16" s="20">
-        <f>IFERROR(IF(D16&gt;30,"",D16+1),"")</f>
+        <f t="shared" ref="E16:J16" ca="1" si="2">IFERROR(IF(D16&gt;30,"",D16+1),"")</f>
         <v>23</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" ref="F16:J16" si="3">IFERROR(IF(E16&gt;30,"",E16+1),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
       <c r="G16" s="20">
-        <f>IFERROR(IF(F16&gt;30,"",F16+1),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>25</v>
       </c>
       <c r="H16" s="20">
-        <f>IFERROR(IF(G16&gt;30,"",G16+1),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>26</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="3"/>
+      <c r="J16" s="21">
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="31"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D19" s="23">
-        <f>IFERROR(J16+1,"")</f>
+      <c r="D19" s="22">
+        <f ca="1">IF(J16&gt;30,"",J16+1)</f>
         <v>29</v>
       </c>
       <c r="E19" s="20">
-        <f>IFERROR(IF(D19&gt;30,"",D19+1),"")</f>
+        <f t="shared" ref="E19:J19" ca="1" si="3">IFERROR(IF(D19&gt;30,"",D19+1),"")</f>
         <v>30</v>
       </c>
       <c r="F19" s="20">
-        <f>IFERROR(IF(E19&gt;30,"",E19+1),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="G19" s="20" t="str">
-        <f t="shared" ref="F19:J19" si="4">IFERROR(IF(F19&gt;30,"",F19+1),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="H19" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="I19" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J19" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="J19" s="21" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="31"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D22" s="23" t="str">
-        <f>IFERROR(J19+1,"")</f>
+      <c r="D22" s="22" t="str">
+        <f ca="1">IF(J19&gt;30,"",J19+1)</f>
         <v/>
       </c>
-      <c r="E22" s="24" t="str">
-        <f>IFERROR(IF(D22&gt;30,"",D22+1),"")</f>
+      <c r="E22" s="23" t="str">
+        <f t="shared" ref="E22:J22" ca="1" si="4">IFERROR(IF(D22&gt;30,"",D22+1),"")</f>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
-        <f>IFERROR(IF(E22&gt;30,"",E22+1),"")</f>
+      <c r="F22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
-        <f>IFERROR(IF(F22&gt;30,"",F22+1),"")</f>
+      <c r="G22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
-        <f>IFERROR(IF(G22&gt;30,"",G22+1),"")</f>
+      <c r="H22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="I22" s="24" t="str">
-        <f>IFERROR(IF(H22&gt;30,"",H22+1),"")</f>
+      <c r="I22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="J22" s="25" t="str">
-        <f>IFERROR(IF(I22&gt;30,"",I22+1),"")</f>
+      <c r="J22" s="24" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
@@ -2104,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2248,10 +2252,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <f>COUNTBLANK(B11:G19)</f>
         <v>0</v>
       </c>
@@ -2430,31 +2434,31 @@
       <c r="BG6" s="10"/>
     </row>
     <row r="8" spans="1:59">
-      <c r="H8" s="42"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="10" spans="1:59">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2501,7 +2505,7 @@
       <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>41684</v>
       </c>
       <c r="H12" s="4">
@@ -2535,7 +2539,7 @@
         <v>41712</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" ref="I12:I19" ca="1" si="0">IF(TODAY()-H13&gt;H13-G13,"Sim","Não")</f>
+        <f t="shared" ref="I13:I19" ca="1" si="0">IF(TODAY()-H13&gt;H13-G13,"Sim","Não")</f>
         <v>Sim</v>
       </c>
     </row>
@@ -2555,7 +2559,7 @@
       <c r="F14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>41684</v>
       </c>
       <c r="H14" s="4">
@@ -2609,7 +2613,7 @@
       <c r="F16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <v>41684</v>
       </c>
       <c r="H16" s="4">
@@ -2663,7 +2667,7 @@
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>41684</v>
       </c>
       <c r="H18" s="4">
@@ -2720,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:G24"/>
+  <dimension ref="A4:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2735,9 +2739,66 @@
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7">
+    <row r="4" spans="1:16">
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
@@ -2750,7 +2811,7 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:16">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:16">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -2782,7 +2843,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2858,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:16">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2873,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:16">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -2827,7 +2888,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:16">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -2842,7 +2903,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:16">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -2857,7 +2918,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:16">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -2872,7 +2933,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,17 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
-    <sheet name="Geral" sheetId="2" r:id="rId2"/>
-    <sheet name="Calendário" sheetId="5" r:id="rId3"/>
+    <sheet name="Calendário" sheetId="5" r:id="rId2"/>
+    <sheet name="Geral" sheetId="2" r:id="rId3"/>
     <sheet name="Clientes" sheetId="3" r:id="rId4"/>
     <sheet name="cálculos" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cálculos!$A$8:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clientes!$B$10:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Geral!$A$11:$M$11</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>Produtos</t>
   </si>
@@ -369,6 +374,9 @@
   </si>
   <si>
     <t>Dias da Semana</t>
+  </si>
+  <si>
+    <t>Nome do Fornecedor</t>
   </si>
 </sst>
 </file>
@@ -499,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -707,14 +715,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -755,20 +777,52 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40% - Ênfase3" xfId="3" builtinId="39"/>
     <cellStyle name="60% - Ênfase3" xfId="2" builtinId="40"/>
     <cellStyle name="Ênfase3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1101,30 +1155,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BG24"/>
+  <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" ht="4.95" customHeight="1">
+    <row r="3" spans="2:10" ht="23.4">
+      <c r="B3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="18">
+        <f ca="1">MONTH(TODAY())</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="24" thickBot="1">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="D5" s="32"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="D6" s="30"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="2:10" ht="21">
+      <c r="D7" s="40">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!J6,1,IF(C7&lt;&gt;"",C7+1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!K6,1,IF(D7&lt;&gt;"",D7+1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!L6,1,IF(E7&lt;&gt;"",E7+1,""))</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!M6,1,IF(F7&lt;&gt;"",F7+1,""))</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!N6,1,IF(G7&lt;&gt;"",G7+1,""))</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="20">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!O6,1,IF(H7&lt;&gt;"",H7+1,""))</f>
+        <v>6</v>
+      </c>
+      <c r="J7" s="21">
+        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!P6,1,IF(I7&lt;&gt;"",I7+1,""))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="30"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D10" s="22">
+        <f ca="1">IF(J7&gt;30,"",J7+1)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" ref="E10:J10" ca="1" si="0">IFERROR(IF(D10&gt;30,"",D10+1),"")</f>
+        <v>9</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="30"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D13" s="22">
+        <f ca="1">IF(J10&gt;30,"",J10+1)</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:J13" ca="1" si="1">IFERROR(IF(D13&gt;30,"",D13+1),"")</f>
+        <v>16</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" s="30"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" ht="21.6" thickBot="1">
+      <c r="D16" s="22">
+        <f ca="1">IF(J13&gt;30,"",J13+1)</f>
+        <v>22</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" ref="E16:J16" ca="1" si="2">IFERROR(IF(D16&gt;30,"",D16+1),"")</f>
+        <v>23</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="30"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D19" s="22">
+        <f ca="1">IF(J16&gt;30,"",J16+1)</f>
+        <v>29</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" ref="E19:J19" ca="1" si="3">IFERROR(IF(D19&gt;30,"",D19+1),"")</f>
+        <v>30</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G19" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="4:10" ht="21.6" thickBot="1">
+      <c r="D22" s="22" t="str">
+        <f ca="1">IF(J19&gt;30,"",J19+1)</f>
+        <v/>
+      </c>
+      <c r="E22" s="23" t="str">
+        <f t="shared" ref="E22:J22" ca="1" si="4">IFERROR(IF(D22&gt;30,"",D22+1),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I22" s="23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J22" s="24" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="33" customHeight="1">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:BH24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:60" ht="4.95" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1184,8 +1599,9 @@
       <c r="BE2" s="10"/>
       <c r="BF2" s="10"/>
       <c r="BG2" s="10"/>
-    </row>
-    <row r="3" spans="1:59">
+      <c r="BH2" s="10"/>
+    </row>
+    <row r="3" spans="1:60">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1245,8 +1661,9 @@
       <c r="BE3" s="10"/>
       <c r="BF3" s="10"/>
       <c r="BG3" s="10"/>
-    </row>
-    <row r="4" spans="1:59" ht="21">
+      <c r="BH3" s="10"/>
+    </row>
+    <row r="4" spans="1:60" ht="21">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
@@ -1260,11 +1677,11 @@
         <v>111</v>
       </c>
       <c r="I4" s="36"/>
-      <c r="J4" s="36">
+      <c r="J4" s="36"/>
+      <c r="K4" s="36">
         <f>COUNTA(B12:B20)</f>
-        <v>3</v>
-      </c>
-      <c r="K4" s="10"/>
+        <v>6</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -1313,8 +1730,9 @@
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
-    </row>
-    <row r="5" spans="1:59" ht="13.8" customHeight="1">
+      <c r="BH4" s="10"/>
+    </row>
+    <row r="5" spans="1:60" ht="13.8" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1374,8 +1792,9 @@
       <c r="BE5" s="10"/>
       <c r="BF5" s="10"/>
       <c r="BG5" s="10"/>
-    </row>
-    <row r="6" spans="1:59" ht="4.95" customHeight="1">
+      <c r="BH5" s="10"/>
+    </row>
+    <row r="6" spans="1:60" ht="4.95" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1435,10 +1854,11 @@
       <c r="BE6" s="10"/>
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
-    </row>
-    <row r="9" spans="1:59" ht="18" customHeight="1"/>
-    <row r="10" spans="1:59" ht="19.8" customHeight="1"/>
-    <row r="11" spans="1:59">
+      <c r="BH6" s="10"/>
+    </row>
+    <row r="9" spans="1:60" ht="18" customHeight="1"/>
+    <row r="10" spans="1:60" ht="19.8" customHeight="1"/>
+    <row r="11" spans="1:60">
       <c r="A11" s="35" t="s">
         <v>110</v>
       </c>
@@ -1467,93 +1887,103 @@
         <v>13</v>
       </c>
       <c r="J11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="L11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="M11" s="35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="28.2" customHeight="1">
+    <row r="12" spans="1:60" ht="28.2" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="6">
-        <v>4.5</v>
-      </c>
       <c r="E12" s="7">
-        <v>42024</v>
+        <v>42025</v>
       </c>
       <c r="F12" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G12" s="8">
-        <v>7</v>
+        <f>D12+6</f>
+        <v>14</v>
       </c>
       <c r="H12" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5">
         <f>F12-H12</f>
-        <v>5</v>
-      </c>
-      <c r="J12" s="12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5">
+        <v>8</v>
+      </c>
+      <c r="K12" s="43">
         <f>(G12-D12)/G12</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="K12" s="34">
-        <v>5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L12" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" ht="30" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="34">
+        <f>J12-L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" ht="30" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <v>42025</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9">
-        <f>D13+3</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H13" s="13">
+        <v>17</v>
+      </c>
+      <c r="I13" s="13">
         <v>8</v>
       </c>
-      <c r="I13" s="13">
-        <f t="shared" ref="I13" si="0">F13-H13</f>
-        <v>12</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" ref="J13:J14" si="1">(G13-D13)/G13</f>
-        <v>0.3</v>
-      </c>
-      <c r="K13" s="33">
-        <v>12</v>
+      <c r="J13" s="13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="44">
+        <f t="shared" ref="K13:K17" si="0">(G13-D13)/G13</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L13" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" ht="32.4" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="M13" s="33">
+        <f>J13-L13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="32.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -1571,79 +2001,156 @@
         <v>25</v>
       </c>
       <c r="G14" s="8">
-        <f>D14+6</f>
         <v>14</v>
       </c>
       <c r="H14" s="5">
         <v>17</v>
       </c>
       <c r="I14" s="5">
-        <f>F14-H14</f>
         <v>8</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L14" s="34">
+        <v>7</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" ref="M13:M17" si="1">J14-L14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42025</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="9">
+        <v>14</v>
+      </c>
+      <c r="H15" s="13">
+        <v>17</v>
+      </c>
+      <c r="I15" s="13">
+        <v>8</v>
+      </c>
+      <c r="J15" s="13">
+        <v>8</v>
+      </c>
+      <c r="K15" s="44">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L15" s="33">
+        <v>7</v>
+      </c>
+      <c r="M15" s="33">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>42024</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="L14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13">
-        <f t="shared" ref="I15:I20" si="2">F15-H15</f>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <f>F16-H16</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L16" s="34">
+        <v>5</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:59">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42025</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9">
+        <f>D17+3</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="13">
+        <v>8</v>
+      </c>
+      <c r="I17" s="13">
+        <f>F17-H17</f>
+        <v>12</v>
+      </c>
+      <c r="J17" s="13">
+        <v>12</v>
+      </c>
+      <c r="K17" s="44">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="33">
+        <v>12</v>
+      </c>
+      <c r="M17" s="33">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" ht="28.8" customHeight="1">
+    </row>
+    <row r="18" spans="1:13" ht="28.8" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1653,14 +2160,15 @@
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
-        <f t="shared" si="2"/>
+        <f>F18-H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1670,14 +2178,15 @@
       <c r="G19" s="9"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13">
-        <f t="shared" si="2"/>
+        <f>F19-H19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1687,14 +2196,15 @@
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
+        <f>F20-H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1702,8 +2212,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6" customHeight="1"/>
-    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:13" ht="15.6" customHeight="1"/>
+    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1711,7 +2221,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1720,385 +2230,40 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J12:J20">
-    <cfRule type="containsErrors" dxfId="3" priority="4">
-      <formula>ISERROR(J12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K20">
-    <cfRule type="containsErrors" dxfId="2" priority="3">
-      <formula>ISERROR(K12)</formula>
+  <autoFilter ref="A11:M11">
+    <filterColumn colId="9"/>
+    <sortState ref="A12:M20">
+      <sortCondition ref="K11"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A12:M20">
+    <sortCondition descending="1" ref="K12"/>
+  </sortState>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="containsErrors" dxfId="7" priority="5">
+      <formula>ISERROR(K18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L20">
-    <cfRule type="containsErrors" dxfId="1" priority="2">
+    <cfRule type="containsErrors" dxfId="6" priority="4">
       <formula>ISERROR(L12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A20">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(AND(K12=0,K12&lt;&gt;""),L12&lt;&gt;0)</formula>
+  <conditionalFormatting sqref="M12:M20">
+    <cfRule type="containsErrors" dxfId="5" priority="3">
+      <formula>ISERROR(M12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" ht="23.4">
-      <c r="B3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="18">
-        <f ca="1">MONTH(TODAY())</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="24" thickBot="1">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="D5" s="32"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="D6" s="30"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="2:10" ht="21">
-      <c r="D7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!J6,1,IF(C7&lt;&gt;"",C7+1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!K6,1,IF(D7&lt;&gt;"",D7+1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!L6,1,IF(E7&lt;&gt;"",E7+1,""))</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!M6,1,IF(F7&lt;&gt;"",F7+1,""))</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!N6,1,IF(G7&lt;&gt;"",G7+1,""))</f>
-        <v>5</v>
-      </c>
-      <c r="I7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!O6,1,IF(H7&lt;&gt;"",H7+1,""))</f>
-        <v>6</v>
-      </c>
-      <c r="J7" s="20">
-        <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!P6,1,IF(I7&lt;&gt;"",I7+1,""))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="D9" s="30"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="2:10" ht="21.6" thickBot="1">
-      <c r="D10" s="22">
-        <f ca="1">IF(J7&gt;30,"",J7+1)</f>
-        <v>8</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" ref="E10:J10" ca="1" si="0">IFERROR(IF(D10&gt;30,"",D10+1),"")</f>
-        <v>9</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J10" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="D12" s="30"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="2:10" ht="21.6" thickBot="1">
-      <c r="D13" s="22">
-        <f ca="1">IF(J10&gt;30,"",J10+1)</f>
-        <v>15</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" ref="E13:J13" ca="1" si="1">IFERROR(IF(D13&gt;30,"",D13+1),"")</f>
-        <v>16</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="D15" s="30"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" ht="21.6" thickBot="1">
-      <c r="D16" s="22">
-        <f ca="1">IF(J13&gt;30,"",J13+1)</f>
-        <v>22</v>
-      </c>
-      <c r="E16" s="20">
-        <f t="shared" ref="E16:J16" ca="1" si="2">IFERROR(IF(D16&gt;30,"",D16+1),"")</f>
-        <v>23</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="J16" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="4:10">
-      <c r="D18" s="30"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D19" s="22">
-        <f ca="1">IF(J16&gt;30,"",J16+1)</f>
-        <v>29</v>
-      </c>
-      <c r="E19" s="20">
-        <f t="shared" ref="E19:J19" ca="1" si="3">IFERROR(IF(D19&gt;30,"",D19+1),"")</f>
-        <v>30</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="G19" s="20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="H19" s="20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" s="20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="J19" s="21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="4:10">
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="30"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="4:10" ht="21.6" thickBot="1">
-      <c r="D22" s="22" t="str">
-        <f ca="1">IF(J19&gt;30,"",J19+1)</f>
-        <v/>
-      </c>
-      <c r="E22" s="23" t="str">
-        <f t="shared" ref="E22:J22" ca="1" si="4">IFERROR(IF(D22&gt;30,"",D22+1),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G22" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="H22" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="I22" s="23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="J22" s="24" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="33" customHeight="1">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="A12:A20">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>OR(AND(L12=0,L12&lt;&gt;""),M12&lt;&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M17">
+    <cfRule type="containsErrors" dxfId="2" priority="1">
+      <formula>ISERROR(M12)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2109,7 +2274,7 @@
   <dimension ref="A1:BG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2530,7 +2695,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7">
         <v>41684</v>
@@ -2706,6 +2871,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B10:I10"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
     <hyperlink ref="D12" r:id="rId2"/>
@@ -2724,15 +2890,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:P24"/>
+  <dimension ref="A4:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
@@ -2799,17 +2965,17 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="D7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="15" t="s">
@@ -2819,7 +2985,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>90</v>
@@ -2836,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>92</v>
@@ -2851,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>93</v>
@@ -2866,7 +3032,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>94</v>
@@ -2881,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>95</v>
@@ -2896,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>96</v>
@@ -2911,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>97</v>
@@ -2926,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>98</v>
@@ -2941,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>99</v>
@@ -2956,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>100</v>
@@ -2971,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>101</v>
@@ -2986,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>102</v>
@@ -3001,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>103</v>
@@ -3016,7 +3182,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>104</v>
@@ -3031,7 +3197,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>105</v>
@@ -3046,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>106</v>
@@ -3061,18 +3227,25 @@
         <v>16</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="15"/>
     </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A8:G8"/>
   <mergeCells count="2">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>